--- a/backend/data/register.xlsx
+++ b/backend/data/register.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -422,6 +422,12 @@
         <v>register_type</v>
       </c>
       <c r="G1" t="str">
+        <v>companyId</v>
+      </c>
+      <c r="H1" t="str">
+        <v>user_description</v>
+      </c>
+      <c r="I1" t="str">
         <v>function</v>
       </c>
     </row>
@@ -438,11 +444,17 @@
       <c r="D2" t="str">
         <v>(41)0000-0000</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
         <v>12345</v>
       </c>
       <c r="F2" t="str">
-        <v>cliente</v>
+        <v>company</v>
+      </c>
+      <c r="G2" t="str">
+        <v>empresa teste 1</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -458,16 +470,25 @@
       <c r="D3" t="str">
         <v>(55)0000-0000</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="str">
         <v>56789</v>
       </c>
       <c r="F3" t="str">
-        <v>cliente</v>
+        <v>company</v>
+      </c>
+      <c r="G3" t="str">
+        <v xml:space="preserve">empresa teste 2 </v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>gerente1</v>
+        <v>gestor1</v>
       </c>
       <c r="B4" t="str">
         <v>gestor 1</v>
@@ -482,15 +503,15 @@
         <v>useradmin1</v>
       </c>
       <c r="F4" t="str">
-        <v>funcionario</v>
-      </c>
-      <c r="G4" t="str">
+        <v>employee</v>
+      </c>
+      <c r="I4" t="str">
         <v>gestor</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>gerente2</v>
+        <v>gestor2</v>
       </c>
       <c r="B5" t="str">
         <v>gestor 2</v>
@@ -505,38 +526,67 @@
         <v>useradmin2</v>
       </c>
       <c r="F5" t="str">
-        <v>funcionario</v>
-      </c>
-      <c r="G5" t="str">
+        <v>employee</v>
+      </c>
+      <c r="I5" t="str">
         <v>gestor</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>tecnico1</v>
+        <v>HDL0001</v>
       </c>
       <c r="B6" t="str">
-        <v>tecnico suporte</v>
+        <v>Funcionário teste</v>
       </c>
       <c r="C6" t="str">
-        <v>worker1@heimdall.com.br</v>
+        <v>funcionario@email.com.br</v>
       </c>
       <c r="D6" t="str">
-        <v>(29)0000-0000</v>
+        <v>(00)0000-0000</v>
       </c>
       <c r="E6" t="str">
-        <v>worker1</v>
+        <v>12345</v>
       </c>
       <c r="F6" t="str">
-        <v>funcionario</v>
+        <v>employee</v>
       </c>
       <c r="G6" t="str">
-        <v>tecnico</v>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>Tecnico</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>HDL000002</v>
+      </c>
+      <c r="B7" t="str">
+        <v>gestor 3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>worker3@heimdall.com.br</v>
+      </c>
+      <c r="D7" t="str">
+        <v>(00)0000-0000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>12345</v>
+      </c>
+      <c r="F7" t="str">
+        <v>employee</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>gestor</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>